--- a/0.One.xlsx
+++ b/0.One.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khome/Development/Tractor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84E22316-E216-3D4E-BCF7-F07BC046D16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF21E8D-E851-C246-B228-2409648A69B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24780" yWindow="13100" windowWidth="27640" windowHeight="16940" xr2:uid="{2F40BEFA-372E-634F-9829-020349880F0C}"/>
+    <workbookView xWindow="33700" yWindow="19620" windowWidth="27640" windowHeight="16940" xr2:uid="{2F40BEFA-372E-634F-9829-020349880F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>A</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -419,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644E42B5-9F7D-0C41-9CB8-BA9D5CDD933B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:G19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,8 +443,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -454,8 +460,11 @@
       <c r="D2">
         <v>6</v>
       </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -467,6 +476,9 @@
       </c>
       <c r="D3">
         <v>8</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
